--- a/MedicalLink/Templates/BC_ThanhToanPTTT_TongHop.xlsx
+++ b/MedicalLink/Templates/BC_ThanhToanPTTT_TongHop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\bin\Debug\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -569,6 +569,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -590,9 +617,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -601,30 +625,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="V1" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,24 +948,24 @@
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
       <c r="E1" s="45"/>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
       <c r="V1" s="45"/>
       <c r="W1" s="45"/>
       <c r="X1" s="45"/>
@@ -985,24 +985,24 @@
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="62"/>
       <c r="V2" s="46"/>
       <c r="W2" s="46"/>
       <c r="X2" s="46"/>
@@ -1016,87 +1016,87 @@
       <c r="AF2" s="14"/>
     </row>
     <row r="5" spans="1:44" s="7" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54" t="s">
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54" t="s">
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="47" t="s">
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="Y5" s="48" t="s">
+      <c r="Y5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="Z5" s="54" t="s">
+      <c r="Z5" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54" t="s">
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="55" t="s">
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="57"/>
-      <c r="AL5" s="55" t="s">
+      <c r="AI5" s="64"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="65"/>
+      <c r="AL5" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="57"/>
-      <c r="AP5" s="47" t="s">
+      <c r="AM5" s="64"/>
+      <c r="AN5" s="64"/>
+      <c r="AO5" s="65"/>
+      <c r="AP5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="AQ5" s="48" t="s">
+      <c r="AQ5" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="AR5" s="49" t="s">
+      <c r="AR5" s="58" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:44" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="25" t="s">
         <v>11</v>
       </c>
@@ -1157,8 +1157,8 @@
       <c r="W6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="48"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="57"/>
       <c r="Z6" s="25" t="s">
         <v>12</v>
       </c>
@@ -1207,14 +1207,14 @@
       <c r="AO6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AP6" s="47"/>
-      <c r="AQ6" s="48"/>
-      <c r="AR6" s="50"/>
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="59"/>
     </row>
     <row r="7" spans="1:44" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="43">
         <v>280000</v>
       </c>
@@ -1267,8 +1267,8 @@
         <v>15000</v>
       </c>
       <c r="W7" s="44"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="48"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="57"/>
       <c r="Z7" s="43">
         <v>84000</v>
       </c>
@@ -1285,9 +1285,7 @@
       <c r="AE7" s="43">
         <v>27000</v>
       </c>
-      <c r="AF7" s="43">
-        <v>21000</v>
-      </c>
+      <c r="AF7" s="43"/>
       <c r="AG7" s="44"/>
       <c r="AH7" s="43">
         <v>19500</v>
@@ -1305,12 +1303,12 @@
         <v>4500</v>
       </c>
       <c r="AO7" s="44"/>
-      <c r="AP7" s="47"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="51"/>
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="60"/>
     </row>
     <row r="8" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -1444,11 +1442,11 @@
       </c>
     </row>
     <row r="9" spans="1:44" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="22">
         <f>SUM(D8:D8)</f>
         <v>0</v>
@@ -1668,11 +1666,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="AP5:AP7"/>
     <mergeCell ref="AQ5:AQ7"/>
     <mergeCell ref="AR5:AR7"/>
@@ -1687,6 +1680,11 @@
     <mergeCell ref="X5:X7"/>
     <mergeCell ref="Y5:Y7"/>
     <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
